--- a/src/test/resources/data/input/ExcelData.xlsx
+++ b/src/test/resources/data/input/ExcelData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -27,58 +27,58 @@
     <t>TestUser3:TestPassword3</t>
   </si>
   <si>
-    <t>test_title1</t>
-  </si>
-  <si>
     <t>test_comment1</t>
   </si>
   <si>
     <t>bug</t>
   </si>
   <si>
-    <t>test_title2</t>
-  </si>
-  <si>
     <t>test_comment2</t>
   </si>
   <si>
     <t>documentation</t>
   </si>
   <si>
-    <t>test_title3</t>
-  </si>
-  <si>
     <t>test_comment3</t>
   </si>
   <si>
     <t>question</t>
   </si>
   <si>
-    <t>test_title4</t>
-  </si>
-  <si>
     <t>test_comment4</t>
   </si>
   <si>
-    <t>test_title5</t>
-  </si>
-  <si>
     <t>test_comment5</t>
   </si>
   <si>
-    <t>test_title6</t>
-  </si>
-  <si>
     <t>test_comment6</t>
   </si>
   <si>
-    <t>test_title7</t>
-  </si>
-  <si>
     <t>test_comment7</t>
   </si>
   <si>
     <t>Title:Comment</t>
+  </si>
+  <si>
+    <t>test_excel_title1</t>
+  </si>
+  <si>
+    <t>test_excel_title2</t>
+  </si>
+  <si>
+    <t>test_excel_title3</t>
+  </si>
+  <si>
+    <t>test_excel_title4</t>
+  </si>
+  <si>
+    <t>test_excel_title5</t>
+  </si>
+  <si>
+    <t>test_excel_title6</t>
+  </si>
+  <si>
+    <t>test_excel_title7</t>
   </si>
 </sst>
 </file>
@@ -455,36 +455,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -492,103 +489,103 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
